--- a/ccd_full_analysis_refined_with_plots/Flexural_FinalMetrics.xlsx
+++ b/ccd_full_analysis_refined_with_plots/Flexural_FinalMetrics.xlsx
@@ -452,13 +452,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.761320202739604</v>
+        <v>0.7385908819923701</v>
       </c>
       <c r="B2" t="n">
-        <v>0.3198282915789695</v>
+        <v>0.3347105596631215</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2118108241711327</v>
+        <v>0.2264074999999967</v>
       </c>
     </row>
   </sheetData>
